--- a/Copia de AJUSTE DE PESOS EN MANIFIESTOS 4.xlsx
+++ b/Copia de AJUSTE DE PESOS EN MANIFIESTOS 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKYLINE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKYLINE\Documents\GitHub\SES_reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Manifiesto</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>005976</t>
+  </si>
+  <si>
+    <t>asdasddsdw</t>
+  </si>
+  <si>
+    <t>assdwasd</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I26"/>
+  <dimension ref="A5:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,6 +1117,16 @@
         <v>update nra.dbo.t_palet set n_peso_pal = 685.9,  n_pesotara_pal = 84.03, N_PESOINICIAL_PAL = 769.93 where c_codigo_pal = '005991' and c_codigo_man = 'E00082' and c_codigo_tem ='09'</v>
       </c>
     </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
